--- a/WebPython/static/dataProductslist.xlsx
+++ b/WebPython/static/dataProductslist.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,56 +483,28 @@
           <t>Tinh trang xe</t>
         </is>
       </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>VinFast</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SUV</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49AF12808</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>VinFast LuxA 2.0</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>14</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>250.000,00 ₫</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>80%</t>
+          <t>KET XUAT DU LIEU: 29/10/2024 10:06:33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00002</t>
+          <t>00001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mercedes</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,47 +514,52 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49AF12868</t>
+          <t>49AF12808</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mercedes C300</t>
+          <t>VinFast LuxA 2.0</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>200.000,00 ₫</t>
+          <t>250.000,00 ₫</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00003</t>
+          <t>00002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Mercedes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cuv</t>
+          <t>Coupe</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>49AF12858</t>
+          <t>49AF12868</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -591,63 +568,73 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>350.000,00 ₫</t>
+          <t>200.000,00 ₫</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00004</t>
+          <t>00003</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VinFast</t>
+          <t>Kia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Cuv</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>49AF12809</t>
+          <t>49AF12858</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mercedes C450</t>
+          <t>Mercedes C300</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>331.122,00 ₫</t>
+          <t>350.000,00 ₫</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00005</t>
+          <t>00004</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -662,7 +649,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49AF12801</t>
+          <t>49AF12809</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -671,38 +658,43 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.223,00 ₫</t>
+          <t>331.122,00 ₫</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00006</t>
+          <t>00005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>VinFast</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Minivan</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49AF12804</t>
+          <t>49AF12801</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -711,216 +703,426 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.584,00 ₫</t>
+          <t>1.223,00 ₫</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00007</t>
+          <t>00006</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Honda</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Supercar</t>
+          <t>Minivan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>49AF12836</t>
+          <t>49AF12804</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lamborghini </t>
+          <t>Mercedes C450</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.052.500,00 ₫</t>
+          <t>2.584,00 ₫</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00008</t>
+          <t>00007</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hatchback</t>
+          <t>Supercar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>53AF75896</t>
+          <t>49AF12836</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KAWASAKI H2R</t>
+          <t xml:space="preserve">Lamborghini </t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.500.000,00 ₫</t>
+          <t>1.052.500,00 ₫</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00009</t>
+          <t>00008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Hatchback</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>49AF12878</t>
+          <t>53AF75896</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>S1000RR</t>
+          <t>KAWASAKI H2R</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25.140.000,00 ₫</t>
+          <t>1.500.000,00 ₫</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00009</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Minivan</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>49AF12875</t>
+          <t>49AF12878</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aventado</t>
+          <t>S1000RR</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.500.000,00 ₫</t>
+          <t>25.140.000,00 ₫</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Minivan</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49AF12875</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Aventado</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.500.000,00 ₫</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>BMW</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Coupe</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>49AF12812</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>BMW S1000RR</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1.250.063,00 ₫</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>78%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>00012</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>VinFast</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>49G112360</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mercedes C300</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.500.000,00 ₫</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>00013</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VinFast</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>49G112380</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VinFast LuxA 2.0</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.500.000,00 ₫</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>00014</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>VinFast</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>49AF12811</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exciter 150</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12,00 ₫</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
         </is>
       </c>
     </row>

--- a/WebPython/static/dataProductslist.xlsx
+++ b/WebPython/static/dataProductslist.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KET XUAT DU LIEU: 29/10/2024 10:06:33</t>
+          <t>KET XUAT DU LIEU: 02/11/2024 19:42:46</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1121,6 +1121,51 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t>SANSANG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>00015</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VinFast</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>49AF12823</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lamborghini </t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1,00 ₫</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>SANSANG</t>
         </is>

--- a/WebPython/static/dataProductslist.xlsx
+++ b/WebPython/static/dataProductslist.xlsx
@@ -492,7 +492,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KET XUAT DU LIEU: 02/11/2024 19:42:46</t>
+          <t>KET XUAT DU LIEU: 03/11/2024 14:52:00</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>SANSANG</t>
+          <t>DACHOTHUE</t>
         </is>
       </c>
     </row>
